--- a/src/test/resources/testData/SpicejetTestData.xlsx
+++ b/src/test/resources/testData/SpicejetTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\SpicyJetSample\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B233A-6656-456F-BD3A-0EA759662B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F8BA31-08E9-4BB7-AEEE-CD3929EC14C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>password</t>
   </si>
@@ -89,12 +89,6 @@
     <t>MAA</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>9876543456</t>
-  </si>
-  <si>
     <t>DEL</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>TestExample@1235</t>
+  </si>
+  <si>
+    <t>uName</t>
+  </si>
+  <si>
+    <t>pWord</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A2" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,15 +478,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -575,18 +575,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7F5B29-5E3E-4404-A286-8AE3AC50BC55}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -594,33 +591,30 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1C0E1970-BBBB-4E9F-B97A-ADB94CEBDAA7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -640,18 +634,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122672A7-AB2F-4F1F-89B0-45A433442546}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -674,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
@@ -685,7 +679,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +699,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -713,10 +707,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
